--- a/os_fe_20180814_fanti.xlsx
+++ b/os_fe_20180814_fanti.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{489A3BBE-1F23-6049-BADD-A9E0080AB429}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BAB22DE7-1EC8-2341-9EAB-70B7C9D32411}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3473,9 +3473,6 @@
     <t>$i18n{搜索结果</t>
   </si>
   <si>
-    <t>$i18n{搜索結果</t>
-  </si>
-  <si>
     <t>條/頁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3484,6 +3481,10 @@
     <rPh sb="0" eb="2">
       <t>tiao'zh</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索結果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3870,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H639"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView tabSelected="1" topLeftCell="A627" workbookViewId="0">
+      <selection activeCell="G639" sqref="G639"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -7176,7 +7177,7 @@
         <v>311</v>
       </c>
       <c r="G127" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H127" t="s">
         <v>7</v>
@@ -7202,7 +7203,7 @@
         <v>311</v>
       </c>
       <c r="G128" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H128" t="s">
         <v>7</v>
@@ -7228,7 +7229,7 @@
         <v>311</v>
       </c>
       <c r="G129" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H129" t="s">
         <v>7</v>
@@ -7254,7 +7255,7 @@
         <v>311</v>
       </c>
       <c r="G130" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H130" t="s">
         <v>7</v>
@@ -7280,7 +7281,7 @@
         <v>312</v>
       </c>
       <c r="G131" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="H131" t="s">
         <v>7</v>
@@ -9334,7 +9335,7 @@
         <v>311</v>
       </c>
       <c r="G210" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H210" t="s">
         <v>7</v>
@@ -9360,7 +9361,7 @@
         <v>311</v>
       </c>
       <c r="G211" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H211" t="s">
         <v>7</v>
@@ -9386,7 +9387,7 @@
         <v>311</v>
       </c>
       <c r="G212" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H212" t="s">
         <v>7</v>
@@ -9412,7 +9413,7 @@
         <v>311</v>
       </c>
       <c r="G213" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H213" t="s">
         <v>7</v>
@@ -9438,7 +9439,7 @@
         <v>312</v>
       </c>
       <c r="G214" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="H214" t="s">
         <v>7</v>
@@ -20488,7 +20489,7 @@
         <v>1151</v>
       </c>
       <c r="G639" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="H639" t="s">
         <v>7</v>
